--- a/WorkBot/main/backend/ordering/OrderFiles/Keck's Food Service/Keck's Food Service_BAKERY_20250309.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Keck's Food Service/Keck's Food Service_BAKERY_20250309.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>112.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>124440</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8 Grain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>137.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>141350</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Molasses</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>56.10</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>108660</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salt - Sea Course</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4100860</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boston Coffee Cake - Cinnamon Walnut</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4100870</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boston Coffee Cake - Blueberry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4100760</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boston Coffee Cake - Apple Cinnamon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.24</t>
         </is>
       </c>
     </row>
